--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H2">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I2">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J2">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N2">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q2">
-        <v>365.0305608564333</v>
+        <v>683.091620567872</v>
       </c>
       <c r="R2">
-        <v>3285.2750477079</v>
+        <v>6147.824585110849</v>
       </c>
       <c r="S2">
-        <v>0.2342911393215286</v>
+        <v>0.3643792268965245</v>
       </c>
       <c r="T2">
-        <v>0.2342911393215286</v>
+        <v>0.3643792268965245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H3">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I3">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J3">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q3">
-        <v>194.8286000290501</v>
+        <v>286.658362116144</v>
       </c>
       <c r="R3">
-        <v>1753.45740026145</v>
+        <v>2579.925259045296</v>
       </c>
       <c r="S3">
-        <v>0.1250487481544795</v>
+        <v>0.1529111896943935</v>
       </c>
       <c r="T3">
-        <v>0.1250487481544795</v>
+        <v>0.1529111896943934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H4">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I4">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J4">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N4">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q4">
-        <v>9.183688064200002</v>
+        <v>27.37267422465867</v>
       </c>
       <c r="R4">
-        <v>82.65319257780001</v>
+        <v>246.354068021928</v>
       </c>
       <c r="S4">
-        <v>0.005894456438624571</v>
+        <v>0.01460131199352127</v>
       </c>
       <c r="T4">
-        <v>0.005894456438624571</v>
+        <v>0.01460131199352127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H5">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I5">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J5">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N5">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q5">
-        <v>97.93162627235</v>
+        <v>131.0293730845733</v>
       </c>
       <c r="R5">
-        <v>881.3846364511501</v>
+        <v>1179.26435776116</v>
       </c>
       <c r="S5">
-        <v>0.06285641465505434</v>
+        <v>0.06989455034685089</v>
       </c>
       <c r="T5">
-        <v>0.06285641465505436</v>
+        <v>0.06989455034685089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>315.206086</v>
       </c>
       <c r="I6">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J6">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N6">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q6">
-        <v>275.8657047269182</v>
+        <v>350.8613578987574</v>
       </c>
       <c r="R6">
-        <v>2482.791342542264</v>
+        <v>3157.752221088817</v>
       </c>
       <c r="S6">
-        <v>0.1770615865930913</v>
+        <v>0.1871587741520409</v>
       </c>
       <c r="T6">
-        <v>0.1770615865930913</v>
+        <v>0.1871587741520409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>315.206086</v>
       </c>
       <c r="I7">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J7">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q7">
         <v>147.238436480148</v>
@@ -889,10 +889,10 @@
         <v>1325.145928321332</v>
       </c>
       <c r="S7">
-        <v>0.09450348747216797</v>
+        <v>0.07854089559682811</v>
       </c>
       <c r="T7">
-        <v>0.09450348747216798</v>
+        <v>0.07854089559682811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>315.206086</v>
       </c>
       <c r="I8">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J8">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N8">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q8">
-        <v>6.940417738938667</v>
+        <v>14.05962737443623</v>
       </c>
       <c r="R8">
-        <v>62.463759650448</v>
+        <v>126.536646369926</v>
       </c>
       <c r="S8">
-        <v>0.004454636279242452</v>
+        <v>0.007499778944574622</v>
       </c>
       <c r="T8">
-        <v>0.004454636279242453</v>
+        <v>0.007499778944574622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>315.206086</v>
       </c>
       <c r="I9">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J9">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N9">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q9">
-        <v>74.01017885540932</v>
+        <v>67.30157768127445</v>
       </c>
       <c r="R9">
-        <v>666.0916096986839</v>
+        <v>605.7141991314701</v>
       </c>
       <c r="S9">
-        <v>0.0475026778161836</v>
+        <v>0.03590045040229348</v>
       </c>
       <c r="T9">
-        <v>0.04750267781618362</v>
+        <v>0.03590045040229348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H10">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I10">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J10">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N10">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q10">
-        <v>0.5494312555128887</v>
+        <v>0.5516164257066668</v>
       </c>
       <c r="R10">
-        <v>4.944881299615999</v>
+        <v>4.964547831360001</v>
       </c>
       <c r="S10">
-        <v>0.0003526468428587296</v>
+        <v>0.0002942468633641337</v>
       </c>
       <c r="T10">
-        <v>0.0003526468428587297</v>
+        <v>0.0002942468633641338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H11">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I11">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J11">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q11">
-        <v>0.293249206512</v>
+        <v>0.2314849960800001</v>
       </c>
       <c r="R11">
-        <v>2.639242858608</v>
+        <v>2.08336496472</v>
       </c>
       <c r="S11">
-        <v>0.0001882190097662882</v>
+        <v>0.0001234802497498863</v>
       </c>
       <c r="T11">
-        <v>0.0001882190097662883</v>
+        <v>0.0001234802497498863</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H12">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I12">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J12">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N12">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q12">
-        <v>0.01382296663466667</v>
+        <v>0.02210423355111112</v>
       </c>
       <c r="R12">
-        <v>0.124406699712</v>
+        <v>0.19893810196</v>
       </c>
       <c r="S12">
-        <v>8.87213003218454E-06</v>
+        <v>1.179098570378936E-05</v>
       </c>
       <c r="T12">
-        <v>8.872130032184543E-06</v>
+        <v>1.179098570378936E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H13">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I13">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J13">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N13">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q13">
-        <v>0.1474032646773333</v>
+        <v>0.1058100440222222</v>
       </c>
       <c r="R13">
-        <v>1.326629382096</v>
+        <v>0.9522903962</v>
       </c>
       <c r="S13">
-        <v>9.460928076799571E-05</v>
+        <v>5.644188989853628E-05</v>
       </c>
       <c r="T13">
-        <v>9.460928076799576E-05</v>
+        <v>5.644188989853628E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H14">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I14">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J14">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N14">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q14">
-        <v>209.3195118307289</v>
+        <v>98.40224263514935</v>
       </c>
       <c r="R14">
-        <v>1883.87560647656</v>
+        <v>885.6201837163442</v>
       </c>
       <c r="S14">
-        <v>0.1343495919738506</v>
+        <v>0.05249037174028297</v>
       </c>
       <c r="T14">
-        <v>0.1343495919738506</v>
+        <v>0.05249037174028298</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H15">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I15">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J15">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q15">
-        <v>111.72058403292</v>
+        <v>41.29435181608201</v>
       </c>
       <c r="R15">
-        <v>1005.48525629628</v>
+        <v>371.649166344738</v>
       </c>
       <c r="S15">
-        <v>0.07170671643855622</v>
+        <v>0.02202750485714968</v>
       </c>
       <c r="T15">
-        <v>0.07170671643855624</v>
+        <v>0.02202750485714968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H16">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I16">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J16">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N16">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q16">
-        <v>5.266203185546667</v>
+        <v>3.94314971743989</v>
       </c>
       <c r="R16">
-        <v>47.39582866992001</v>
+        <v>35.488347456959</v>
       </c>
       <c r="S16">
-        <v>0.003380058758219029</v>
+        <v>0.002103380867684403</v>
       </c>
       <c r="T16">
-        <v>0.00338005875821903</v>
+        <v>0.002103380867684403</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H17">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I17">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J17">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N17">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q17">
-        <v>56.15694246537333</v>
+        <v>18.87533644737278</v>
       </c>
       <c r="R17">
-        <v>505.4124821883601</v>
+        <v>169.878028026355</v>
       </c>
       <c r="S17">
-        <v>0.03604376028176044</v>
+        <v>0.01006860616499409</v>
       </c>
       <c r="T17">
-        <v>0.03604376028176045</v>
+        <v>0.0100686061649941</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H18">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I18">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J18">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N18">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q18">
-        <v>1.250990932787111</v>
+        <v>1.82355334016</v>
       </c>
       <c r="R18">
-        <v>11.258918395084</v>
+        <v>16.41198006144</v>
       </c>
       <c r="S18">
-        <v>0.0008029357603262945</v>
+        <v>0.000972731821449791</v>
       </c>
       <c r="T18">
-        <v>0.0008029357603262947</v>
+        <v>0.0009727318214497911</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H19">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I19">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J19">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>4.204062</v>
       </c>
       <c r="O19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q19">
-        <v>0.6676942651380001</v>
+        <v>0.7652513923200002</v>
       </c>
       <c r="R19">
-        <v>6.009248386242001</v>
+        <v>6.88726253088</v>
       </c>
       <c r="S19">
-        <v>0.0004285527483797685</v>
+        <v>0.0004082054329450595</v>
       </c>
       <c r="T19">
-        <v>0.0004285527483797685</v>
+        <v>0.0004082054329450595</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H20">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I20">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J20">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N20">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q20">
-        <v>0.03147328396533334</v>
+        <v>0.07307296709333334</v>
       </c>
       <c r="R20">
-        <v>0.283259555688</v>
+        <v>0.6576567038400001</v>
       </c>
       <c r="S20">
-        <v>2.020080603971158E-05</v>
+        <v>3.897906291745879E-05</v>
       </c>
       <c r="T20">
-        <v>2.020080603971159E-05</v>
+        <v>3.897906291745879E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H21">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I21">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J21">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N21">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q21">
-        <v>0.3356200538726666</v>
+        <v>0.3497906338666667</v>
       </c>
       <c r="R21">
-        <v>3.020580484854</v>
+        <v>3.1481157048</v>
       </c>
       <c r="S21">
-        <v>0.0002154143056309912</v>
+        <v>0.0001865876214936195</v>
       </c>
       <c r="T21">
-        <v>0.0002154143056309913</v>
+        <v>0.0001865876214936195</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H22">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I22">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J22">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N22">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q22">
-        <v>0.6781264233742221</v>
+        <v>0.3762815227120001</v>
       </c>
       <c r="R22">
-        <v>6.103137810368</v>
+        <v>3.386533704408001</v>
       </c>
       <c r="S22">
-        <v>0.0004352485226541536</v>
+        <v>0.000200718565728069</v>
       </c>
       <c r="T22">
-        <v>0.0004352485226541538</v>
+        <v>0.000200718565728069</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H23">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I23">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J23">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>4.204062</v>
       </c>
       <c r="O23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q23">
-        <v>0.361937974176</v>
+        <v>0.157905970074</v>
       </c>
       <c r="R23">
-        <v>3.257441767584</v>
+        <v>1.421153730666</v>
       </c>
       <c r="S23">
-        <v>0.0002323061941292429</v>
+        <v>8.423124155743162E-05</v>
       </c>
       <c r="T23">
-        <v>0.000232306194129243</v>
+        <v>8.423124155743162E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H24">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I24">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J24">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N24">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q24">
-        <v>0.01706076753066666</v>
+        <v>0.01507825777366667</v>
       </c>
       <c r="R24">
-        <v>0.153546907776</v>
+        <v>0.135704319963</v>
       </c>
       <c r="S24">
-        <v>1.095027948641191E-05</v>
+        <v>8.043143474586462E-06</v>
       </c>
       <c r="T24">
-        <v>1.095027948641191E-05</v>
+        <v>8.043143474586462E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H25">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I25">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J25">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N25">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q25">
-        <v>0.1819300370453333</v>
+        <v>0.07217762674833335</v>
       </c>
       <c r="R25">
-        <v>1.637370333408</v>
+        <v>0.6495986407350001</v>
       </c>
       <c r="S25">
-        <v>0.0001167699371695164</v>
+        <v>3.850146457940694E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001167699371695164</v>
+        <v>3.850146457940694E-05</v>
       </c>
     </row>
   </sheetData>
